--- a/students.xlsx
+++ b/students.xlsx
@@ -40,10 +40,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,8 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,19 +367,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -391,7 +407,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>